--- a/data/raw/histopathology_scores_raw.xlsx
+++ b/data/raw/histopathology_scores_raw.xlsx
@@ -1,16 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicklesniak/Documents/Github/Lesniak_humanCdGF_XXXX_2020/data/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C325FDD2-022B-E148-B277-6505BD65F874}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="0" windowWidth="20800" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1680" yWindow="500" windowWidth="21340" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16B037SchlossCecum" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="97">
   <si>
     <t>Tissue</t>
   </si>
@@ -204,9 +219,6 @@
     <t>OUT2</t>
   </si>
   <si>
-    <t>939 369</t>
-  </si>
-  <si>
     <t>OUTA</t>
   </si>
   <si>
@@ -223,9 +235,6 @@
   </si>
   <si>
     <t>CON</t>
-  </si>
-  <si>
-    <t>CONTROL</t>
   </si>
   <si>
     <t>DA00369</t>
@@ -321,7 +330,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -814,6 +823,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1140,14 +1152,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="12" style="1" customWidth="1"/>
@@ -1157,7 +1169,7 @@
     <col min="9" max="16384" width="14.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1166,7 +1178,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -1175,7 +1187,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1184,7 +1196,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1193,7 +1205,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1202,7 +1214,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1211,7 +1223,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1221,7 +1233,7 @@
       <c r="E7" s="5"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -1230,7 +1242,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1">
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -1239,7 +1251,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1248,7 +1260,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1">
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1256,7 +1268,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1">
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1277,18 +1289,18 @@
       </c>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:12" s="13" customFormat="1" ht="24">
+    <row r="13" spans="1:12" s="13" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>48</v>
@@ -1297,25 +1309,25 @@
         <v>0</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="17" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:12" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>2</v>
       </c>
@@ -1326,10 +1338,10 @@
         <v>369</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>4</v>
@@ -1347,12 +1359,12 @@
         <v>34</v>
       </c>
       <c r="K14" s="16">
-        <f>G14+H14+I14</f>
+        <f t="shared" ref="K14:K45" si="0">G14+H14+I14</f>
         <v>7</v>
       </c>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:12" s="17" customFormat="1">
+    <row r="15" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>23</v>
       </c>
@@ -1363,10 +1375,10 @@
         <v>369</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>4</v>
@@ -1384,12 +1396,12 @@
         <v>34</v>
       </c>
       <c r="K15" s="14">
-        <f>G15+H15+I15</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L15" s="28"/>
     </row>
-    <row r="16" spans="1:12" s="17" customFormat="1">
+    <row r="16" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>35</v>
       </c>
@@ -1400,10 +1412,10 @@
         <v>369</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>4</v>
@@ -1421,12 +1433,12 @@
         <v>34</v>
       </c>
       <c r="K16" s="14">
-        <f>G16+H16+I16</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12" s="17" customFormat="1">
+    <row r="17" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>7</v>
       </c>
@@ -1437,10 +1449,10 @@
         <v>58</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>4</v>
@@ -1458,12 +1470,12 @@
         <v>34</v>
       </c>
       <c r="K17" s="16">
-        <f>G17+H17+I17</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L17" s="28"/>
     </row>
-    <row r="18" spans="1:12" s="17" customFormat="1">
+    <row r="18" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>67</v>
       </c>
@@ -1474,10 +1486,10 @@
         <v>58</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>4</v>
@@ -1495,12 +1507,12 @@
         <v>34</v>
       </c>
       <c r="K18" s="14">
-        <f>G18+H18+I18</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L18" s="28"/>
     </row>
-    <row r="19" spans="1:12" s="17" customFormat="1">
+    <row r="19" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>68</v>
       </c>
@@ -1511,10 +1523,10 @@
         <v>58</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>4</v>
@@ -1532,12 +1544,12 @@
         <v>34</v>
       </c>
       <c r="K19" s="14">
-        <f>G19+H19+I19</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L19" s="29"/>
     </row>
-    <row r="20" spans="1:12" s="17" customFormat="1">
+    <row r="20" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>44</v>
       </c>
@@ -1548,10 +1560,10 @@
         <v>430</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>4</v>
@@ -1569,14 +1581,14 @@
         <v>7</v>
       </c>
       <c r="K20" s="14">
-        <f>G20+H20+I20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20" s="29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="17" customFormat="1">
+    <row r="21" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>58</v>
       </c>
@@ -1587,10 +1599,10 @@
         <v>430</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>4</v>
@@ -1608,12 +1620,12 @@
         <v>7</v>
       </c>
       <c r="K21" s="14">
-        <f>G21+H21+I21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21" s="29"/>
     </row>
-    <row r="22" spans="1:12" s="17" customFormat="1">
+    <row r="22" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>60</v>
       </c>
@@ -1624,10 +1636,10 @@
         <v>430</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>4</v>
@@ -1645,12 +1657,12 @@
         <v>7</v>
       </c>
       <c r="K22" s="14">
-        <f>G22+H22+I22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:12" s="17" customFormat="1">
+    <row r="23" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>69</v>
       </c>
@@ -1661,10 +1673,10 @@
         <v>56</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>4</v>
@@ -1682,14 +1694,14 @@
         <v>34</v>
       </c>
       <c r="K23" s="14">
-        <f>G23+H23+I23</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L23" s="29" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="17" customFormat="1">
+    <row r="24" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>86</v>
       </c>
@@ -1700,10 +1712,10 @@
         <v>56</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>4</v>
@@ -1721,14 +1733,14 @@
         <v>34</v>
       </c>
       <c r="K24" s="14">
-        <f>G24+H24+I24</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L24" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="17" customFormat="1">
+    <row r="25" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>81</v>
       </c>
@@ -1739,10 +1751,10 @@
         <v>56</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>4</v>
@@ -1760,12 +1772,12 @@
         <v>34</v>
       </c>
       <c r="K25" s="14">
-        <f>G25+H25+I25</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L25" s="28"/>
     </row>
-    <row r="26" spans="1:12" s="17" customFormat="1">
+    <row r="26" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>1</v>
       </c>
@@ -1773,13 +1785,13 @@
         <v>2955</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>4</v>
@@ -1797,26 +1809,26 @@
         <v>34</v>
       </c>
       <c r="K26" s="16">
-        <f>G26+H26+I26</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L26" s="28"/>
     </row>
-    <row r="27" spans="1:12" s="17" customFormat="1">
+    <row r="27" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>24</v>
       </c>
       <c r="B27" s="15">
-        <v>12953</v>
+        <v>2953</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>4</v>
@@ -1834,12 +1846,12 @@
         <v>34</v>
       </c>
       <c r="K27" s="14">
-        <f>G27+H27+I27</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L27" s="28"/>
     </row>
-    <row r="28" spans="1:12" s="17" customFormat="1">
+    <row r="28" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>62</v>
       </c>
@@ -1850,10 +1862,10 @@
         <v>578</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>4</v>
@@ -1871,12 +1883,12 @@
         <v>34</v>
       </c>
       <c r="K28" s="14">
-        <f>G28+H28+I28</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L28" s="29"/>
     </row>
-    <row r="29" spans="1:12" s="17" customFormat="1">
+    <row r="29" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>34</v>
       </c>
@@ -1887,10 +1899,10 @@
         <v>578</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>4</v>
@@ -1908,14 +1920,14 @@
         <v>34</v>
       </c>
       <c r="K29" s="14">
-        <f>G29+H29+I29</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L29" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="17" customFormat="1">
+    <row r="30" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>26</v>
       </c>
@@ -1923,13 +1935,13 @@
         <v>2030</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>4</v>
@@ -1947,12 +1959,12 @@
         <v>34</v>
       </c>
       <c r="K30" s="14">
-        <f>G30+H30+I30</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L30" s="29"/>
     </row>
-    <row r="31" spans="1:12" s="17" customFormat="1">
+    <row r="31" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>52</v>
       </c>
@@ -1960,13 +1972,13 @@
         <v>2674</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>4</v>
@@ -1984,12 +1996,12 @@
         <v>34</v>
       </c>
       <c r="K31" s="14">
-        <f>G31+H31+I31</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L31" s="28"/>
     </row>
-    <row r="32" spans="1:12" s="17" customFormat="1">
+    <row r="32" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>64</v>
       </c>
@@ -1997,13 +2009,13 @@
         <v>2651</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>4</v>
@@ -2021,14 +2033,14 @@
         <v>34</v>
       </c>
       <c r="K32" s="14">
-        <f>G32+H32+I32</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L32" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="17" customFormat="1">
+    <row r="33" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>48</v>
       </c>
@@ -2039,10 +2051,10 @@
         <v>52</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>4</v>
@@ -2060,12 +2072,12 @@
         <v>7</v>
       </c>
       <c r="K33" s="14">
-        <f>G33+H33+I33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33" s="28"/>
     </row>
-    <row r="34" spans="1:12" s="17" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>92</v>
       </c>
@@ -2076,10 +2088,10 @@
         <v>52</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>4</v>
@@ -2097,12 +2109,12 @@
         <v>7</v>
       </c>
       <c r="K34" s="14">
-        <f>G34+H34+I34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L34" s="29"/>
     </row>
-    <row r="35" spans="1:12" s="17" customFormat="1">
+    <row r="35" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>49</v>
       </c>
@@ -2113,10 +2125,10 @@
         <v>52</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>4</v>
@@ -2134,14 +2146,14 @@
         <v>34</v>
       </c>
       <c r="K35" s="14">
-        <f>G35+H35+I35</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L35" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="17" customFormat="1">
+    <row r="36" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>94</v>
       </c>
@@ -2149,13 +2161,13 @@
         <v>2054</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>4</v>
@@ -2173,12 +2185,12 @@
         <v>34</v>
       </c>
       <c r="K36" s="14">
-        <f>G36+H36+I36</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L36" s="29"/>
     </row>
-    <row r="37" spans="1:12" s="17" customFormat="1">
+    <row r="37" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>66</v>
       </c>
@@ -2186,13 +2198,13 @@
         <v>2026</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>4</v>
@@ -2210,14 +2222,14 @@
         <v>34</v>
       </c>
       <c r="K37" s="14">
-        <f>G37+H37+I37</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L37" s="29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="17" customFormat="1">
+    <row r="38" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>80</v>
       </c>
@@ -2225,13 +2237,13 @@
         <v>2084</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>4</v>
@@ -2249,14 +2261,14 @@
         <v>34</v>
       </c>
       <c r="K38" s="14">
-        <f>G38+H38+I38</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L38" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="17" customFormat="1">
+    <row r="39" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>56</v>
       </c>
@@ -2267,10 +2279,10 @@
         <v>54</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>4</v>
@@ -2288,14 +2300,14 @@
         <v>34</v>
       </c>
       <c r="K39" s="14">
-        <f>G39+H39+I39</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L39" s="29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="17" customFormat="1">
+    <row r="40" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>16</v>
       </c>
@@ -2306,10 +2318,10 @@
         <v>54</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>4</v>
@@ -2327,12 +2339,12 @@
         <v>34</v>
       </c>
       <c r="K40" s="14">
-        <f>G40+H40+I40</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L40" s="28"/>
     </row>
-    <row r="41" spans="1:12" s="17" customFormat="1">
+    <row r="41" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>90</v>
       </c>
@@ -2343,10 +2355,10 @@
         <v>54</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>4</v>
@@ -2364,12 +2376,12 @@
         <v>34</v>
       </c>
       <c r="K41" s="14">
-        <f>G41+H41+I41</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L41" s="28"/>
     </row>
-    <row r="42" spans="1:12" s="17" customFormat="1">
+    <row r="42" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>65</v>
       </c>
@@ -2380,10 +2392,10 @@
         <v>59</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>4</v>
@@ -2401,12 +2413,12 @@
         <v>34</v>
       </c>
       <c r="K42" s="14">
-        <f>G42+H42+I42</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L42" s="28"/>
     </row>
-    <row r="43" spans="1:12" s="17" customFormat="1">
+    <row r="43" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <v>75</v>
       </c>
@@ -2417,10 +2429,10 @@
         <v>59</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>4</v>
@@ -2435,17 +2447,17 @@
         <v>1</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K43" s="14">
-        <f>G43+H43+I43</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L43" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="17" customFormat="1">
+    <row r="44" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>19</v>
       </c>
@@ -2456,10 +2468,10 @@
         <v>59</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>4</v>
@@ -2477,12 +2489,12 @@
         <v>34</v>
       </c>
       <c r="K44" s="14">
-        <f>G44+H44+I44</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="L44" s="28"/>
     </row>
-    <row r="45" spans="1:12" s="17" customFormat="1">
+    <row r="45" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
         <v>28</v>
       </c>
@@ -2493,10 +2505,10 @@
         <v>51</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>4</v>
@@ -2514,12 +2526,12 @@
         <v>7</v>
       </c>
       <c r="K45" s="14">
-        <f>G45+H45+I45</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L45" s="28"/>
     </row>
-    <row r="46" spans="1:12" s="17" customFormat="1">
+    <row r="46" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>46</v>
       </c>
@@ -2530,10 +2542,10 @@
         <v>51</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>4</v>
@@ -2551,12 +2563,12 @@
         <v>7</v>
       </c>
       <c r="K46" s="14">
-        <f>G46+H46+I46</f>
+        <f t="shared" ref="K46:K71" si="1">G46+H46+I46</f>
         <v>0</v>
       </c>
       <c r="L46" s="28"/>
     </row>
-    <row r="47" spans="1:12" s="17" customFormat="1">
+    <row r="47" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
         <v>55</v>
       </c>
@@ -2564,13 +2576,13 @@
         <v>1015</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>4</v>
@@ -2588,14 +2600,14 @@
         <v>34</v>
       </c>
       <c r="K47" s="14">
-        <f>G47+H47+I47</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L47" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="17" customFormat="1">
+    <row r="48" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <v>78</v>
       </c>
@@ -2606,10 +2618,10 @@
         <v>51</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>4</v>
@@ -2627,12 +2639,12 @@
         <v>7</v>
       </c>
       <c r="K48" s="14">
-        <f>G48+H48+I48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L48" s="29"/>
     </row>
-    <row r="49" spans="1:12" s="17" customFormat="1">
+    <row r="49" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
         <v>37</v>
       </c>
@@ -2640,13 +2652,13 @@
         <v>50</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>4</v>
@@ -2664,12 +2676,12 @@
         <v>34</v>
       </c>
       <c r="K49" s="14">
-        <f>G49+H49+I49</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L49" s="29"/>
     </row>
-    <row r="50" spans="1:12" s="17" customFormat="1">
+    <row r="50" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
         <v>39</v>
       </c>
@@ -2677,13 +2689,13 @@
         <v>2064</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>4</v>
@@ -2701,12 +2713,12 @@
         <v>34</v>
       </c>
       <c r="K50" s="14">
-        <f>G50+H50+I50</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L50" s="29"/>
     </row>
-    <row r="51" spans="1:12" s="17" customFormat="1">
+    <row r="51" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
         <v>82</v>
       </c>
@@ -2714,13 +2726,13 @@
         <v>2056</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>4</v>
@@ -2738,12 +2750,12 @@
         <v>34</v>
       </c>
       <c r="K51" s="14">
-        <f>G51+H51+I51</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L51" s="28"/>
     </row>
-    <row r="52" spans="1:12" s="17" customFormat="1">
+    <row r="52" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
         <v>11</v>
       </c>
@@ -2754,10 +2766,10 @@
         <v>53</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>4</v>
@@ -2775,12 +2787,12 @@
         <v>34</v>
       </c>
       <c r="K52" s="16">
-        <f>G52+H52+I52</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L52" s="28"/>
     </row>
-    <row r="53" spans="1:12" s="17" customFormat="1">
+    <row r="53" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
         <v>36</v>
       </c>
@@ -2791,10 +2803,10 @@
         <v>53</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>4</v>
@@ -2812,12 +2824,12 @@
         <v>34</v>
       </c>
       <c r="K53" s="14">
-        <f>G53+H53+I53</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L53" s="28"/>
     </row>
-    <row r="54" spans="1:12" s="17" customFormat="1">
+    <row r="54" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
         <v>59</v>
       </c>
@@ -2828,10 +2840,10 @@
         <v>53</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>4</v>
@@ -2849,12 +2861,12 @@
         <v>34</v>
       </c>
       <c r="K54" s="14">
-        <f>G54+H54+I54</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L54" s="28"/>
     </row>
-    <row r="55" spans="1:12" s="17" customFormat="1">
+    <row r="55" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
         <v>8</v>
       </c>
@@ -2862,13 +2874,13 @@
         <v>2063</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>4</v>
@@ -2886,12 +2898,12 @@
         <v>34</v>
       </c>
       <c r="K55" s="16">
-        <f>G55+H55+I55</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L55" s="28"/>
     </row>
-    <row r="56" spans="1:12" s="17" customFormat="1">
+    <row r="56" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>61</v>
       </c>
@@ -2899,13 +2911,13 @@
         <v>50</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>4</v>
@@ -2923,12 +2935,12 @@
         <v>34</v>
       </c>
       <c r="K56" s="14">
-        <f>G56+H56+I56</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L56" s="28"/>
     </row>
-    <row r="57" spans="1:12" s="17" customFormat="1">
+    <row r="57" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
         <v>17</v>
       </c>
@@ -2936,13 +2948,13 @@
         <v>2062</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>4</v>
@@ -2957,17 +2969,17 @@
         <v>2</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K57" s="14">
-        <f>G57+H57+I57</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L57" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="17" customFormat="1" ht="15.75" customHeight="1">
+    <row r="58" spans="1:12" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
         <v>0</v>
       </c>
@@ -2978,10 +2990,10 @@
         <v>57</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>4</v>
@@ -2999,12 +3011,12 @@
         <v>34</v>
       </c>
       <c r="K58" s="16">
-        <f>G58+H58+I58</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L58" s="28"/>
     </row>
-    <row r="59" spans="1:12" s="17" customFormat="1">
+    <row r="59" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
         <v>79</v>
       </c>
@@ -3015,10 +3027,10 @@
         <v>57</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>4</v>
@@ -3036,12 +3048,12 @@
         <v>34</v>
       </c>
       <c r="K59" s="14">
-        <f>G59+H59+I59</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L59" s="29"/>
     </row>
-    <row r="60" spans="1:12" s="17" customFormat="1">
+    <row r="60" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
         <v>97</v>
       </c>
@@ -3052,10 +3064,10 @@
         <v>57</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F60" s="21" t="s">
         <v>4</v>
@@ -3073,12 +3085,12 @@
         <v>34</v>
       </c>
       <c r="K60" s="14">
-        <f>G60+H60+I60</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L60" s="27"/>
     </row>
-    <row r="61" spans="1:12" s="17" customFormat="1">
+    <row r="61" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <v>72</v>
       </c>
@@ -3086,13 +3098,13 @@
         <v>2542</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>4</v>
@@ -3110,12 +3122,12 @@
         <v>34</v>
       </c>
       <c r="K61" s="14">
-        <f>G61+H61+I61</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L61" s="28"/>
     </row>
-    <row r="62" spans="1:12" s="17" customFormat="1">
+    <row r="62" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
         <v>29</v>
       </c>
@@ -3123,13 +3135,13 @@
         <v>931</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>4</v>
@@ -3147,12 +3159,12 @@
         <v>34</v>
       </c>
       <c r="K62" s="14">
-        <f>G62+H62+I62</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L62" s="28"/>
     </row>
-    <row r="63" spans="1:12" s="17" customFormat="1">
+    <row r="63" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
         <v>5</v>
       </c>
@@ -3160,13 +3172,13 @@
         <v>2091</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>4</v>
@@ -3184,12 +3196,12 @@
         <v>34</v>
       </c>
       <c r="K63" s="16">
-        <f>G63+H63+I63</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L63" s="29"/>
     </row>
-    <row r="64" spans="1:12" s="17" customFormat="1">
+    <row r="64" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
         <v>6</v>
       </c>
@@ -3197,13 +3209,13 @@
         <v>896</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>4</v>
@@ -3221,12 +3233,12 @@
         <v>34</v>
       </c>
       <c r="K64" s="16">
-        <f>G64+H64+I64</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L64" s="28"/>
     </row>
-    <row r="65" spans="1:12" s="17" customFormat="1">
+    <row r="65" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15">
         <v>76</v>
       </c>
@@ -3234,13 +3246,13 @@
         <v>568</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>4</v>
@@ -3258,12 +3270,12 @@
         <v>34</v>
       </c>
       <c r="K65" s="14">
-        <f>G65+H65+I65</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L65" s="28"/>
     </row>
-    <row r="66" spans="1:12" s="17" customFormat="1">
+    <row r="66" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
         <v>3</v>
       </c>
@@ -3274,10 +3286,10 @@
         <v>60</v>
       </c>
       <c r="D66" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>4</v>
@@ -3295,12 +3307,12 @@
         <v>34</v>
       </c>
       <c r="K66" s="16">
-        <f>G66+H66+I66</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L66" s="28"/>
     </row>
-    <row r="67" spans="1:12" s="17" customFormat="1">
+    <row r="67" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
         <v>77</v>
       </c>
@@ -3311,10 +3323,10 @@
         <v>60</v>
       </c>
       <c r="D67" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>4</v>
@@ -3332,12 +3344,12 @@
         <v>34</v>
       </c>
       <c r="K67" s="14">
-        <f>G67+H67+I67</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L67" s="28"/>
     </row>
-    <row r="68" spans="1:12" s="17" customFormat="1">
+    <row r="68" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15">
         <v>96</v>
       </c>
@@ -3348,10 +3360,10 @@
         <v>60</v>
       </c>
       <c r="D68" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>4</v>
@@ -3369,12 +3381,12 @@
         <v>34</v>
       </c>
       <c r="K68" s="14">
-        <f>G68+H68+I68</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L68" s="29"/>
     </row>
-    <row r="69" spans="1:12" s="17" customFormat="1">
+    <row r="69" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
         <v>98</v>
       </c>
@@ -3402,24 +3414,26 @@
         <v>34</v>
       </c>
       <c r="K69" s="34">
-        <f>G69+H69+I69</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L69" s="35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="22" customFormat="1" ht="15">
+    <row r="70" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <v>18</v>
       </c>
       <c r="B70" s="15">
-        <v>4112</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="15"/>
+        <v>939</v>
+      </c>
+      <c r="C70" s="15">
+        <v>369</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15" t="s">
         <v>4</v>
@@ -3437,12 +3451,12 @@
         <v>34</v>
       </c>
       <c r="K70" s="14">
-        <f>G70+H70+I70</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L70" s="28"/>
     </row>
-    <row r="71" spans="1:12" s="31" customFormat="1" ht="15">
+    <row r="71" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="30">
         <v>14</v>
       </c>
@@ -3450,9 +3464,11 @@
         <v>50</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" s="30"/>
+        <v>65</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="E71" s="30"/>
       <c r="F71" s="30" t="s">
         <v>4</v>
@@ -3470,12 +3486,12 @@
         <v>34</v>
       </c>
       <c r="K71" s="37">
-        <f>G71+H71+I71</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L71" s="36"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3490,7 +3506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3505,7 +3521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3513,7 +3529,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>8</v>
       </c>
@@ -3523,7 +3539,7 @@
       <c r="E75" s="12"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>9</v>
       </c>
@@ -3533,7 +3549,7 @@
       <c r="E76" s="12"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>10</v>
       </c>
@@ -3543,7 +3559,7 @@
       <c r="E77" s="12"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>11</v>
       </c>
@@ -3553,7 +3569,7 @@
       <c r="E78" s="12"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>12</v>
       </c>
@@ -3563,7 +3579,7 @@
       <c r="E79" s="12"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>13</v>
       </c>
@@ -3573,7 +3589,7 @@
       <c r="E80" s="12"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -3581,7 +3597,7 @@
       <c r="E81" s="12"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>14</v>
       </c>
@@ -3591,7 +3607,7 @@
       <c r="E82" s="12"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>15</v>
       </c>
@@ -3601,7 +3617,7 @@
       <c r="E83" s="12"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>16</v>
       </c>
@@ -3611,7 +3627,7 @@
       <c r="E84" s="12"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>17</v>
       </c>
@@ -3621,7 +3637,7 @@
       <c r="E85" s="12"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>18</v>
       </c>
@@ -3631,7 +3647,7 @@
       <c r="E86" s="12"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>19</v>
       </c>
@@ -3641,7 +3657,7 @@
       <c r="E87" s="12"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -3649,7 +3665,7 @@
       <c r="E88" s="12"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>20</v>
       </c>
@@ -3659,7 +3675,7 @@
       <c r="E89" s="12"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>5</v>
       </c>
@@ -3669,7 +3685,7 @@
       <c r="E90" s="12"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>21</v>
       </c>
@@ -3679,7 +3695,7 @@
       <c r="E91" s="12"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>22</v>
       </c>
@@ -3689,7 +3705,7 @@
       <c r="E92" s="12"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
         <v>23</v>
       </c>
@@ -3699,7 +3715,7 @@
       <c r="E93" s="12"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>24</v>
       </c>
@@ -3709,7 +3725,7 @@
       <c r="E94" s="12"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3717,7 +3733,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3725,7 +3741,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3733,28 +3749,28 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3762,7 +3778,7 @@
       <c r="E101" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A14:L71">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:L71">
     <sortCondition ref="D14:D71"/>
   </sortState>
   <phoneticPr fontId="1"/>
